--- a/src/test/resources/reports/Verification.xlsx
+++ b/src/test/resources/reports/Verification.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF3C669-4341-42D6-A378-6973A40D5C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A81B52-ABF0-40B9-96CE-618690679399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Numero bug</t>
   </si>
@@ -34,331 +34,28 @@
     <t>Heure Verification</t>
   </si>
   <si>
-    <t>MANOMANO</t>
-  </si>
-  <si>
-    <t>204</t>
+    <t>LEPARISIEN</t>
+  </si>
+  <si>
+    <t>1294</t>
   </si>
   <si>
     <t>KO</t>
   </si>
   <si>
-    <t>2021-06-08</t>
-  </si>
-  <si>
-    <t>15:19:27</t>
-  </si>
-  <si>
-    <t>173_176</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>15:28:12</t>
-  </si>
-  <si>
-    <t>15:28:22</t>
-  </si>
-  <si>
-    <t>15:28:31</t>
-  </si>
-  <si>
-    <t>15:28:53</t>
-  </si>
-  <si>
-    <t>15:29:05</t>
-  </si>
-  <si>
-    <t>15:29:13</t>
-  </si>
-  <si>
-    <t>15:29:21</t>
-  </si>
-  <si>
-    <t>15:29:29</t>
-  </si>
-  <si>
-    <t>15:29:37</t>
-  </si>
-  <si>
-    <t>15:29:45</t>
-  </si>
-  <si>
-    <t>15:29:54</t>
-  </si>
-  <si>
-    <t>15:30:02</t>
-  </si>
-  <si>
-    <t>15:30:10</t>
-  </si>
-  <si>
-    <t>15:30:18</t>
-  </si>
-  <si>
-    <t>15:30:28</t>
-  </si>
-  <si>
-    <t>15:30:36</t>
-  </si>
-  <si>
-    <t>15:30:44</t>
-  </si>
-  <si>
-    <t>15:30:51</t>
-  </si>
-  <si>
-    <t>15:30:59</t>
-  </si>
-  <si>
-    <t>15:31:07</t>
-  </si>
-  <si>
-    <t>15:31:15</t>
-  </si>
-  <si>
-    <t>15:31:24</t>
-  </si>
-  <si>
-    <t>15:31:32</t>
-  </si>
-  <si>
-    <t>15:31:39</t>
-  </si>
-  <si>
-    <t>15:31:48</t>
-  </si>
-  <si>
-    <t>15:31:55</t>
-  </si>
-  <si>
-    <t>15:32:03</t>
-  </si>
-  <si>
-    <t>15:32:05</t>
-  </si>
-  <si>
-    <t>15:32:07</t>
-  </si>
-  <si>
-    <t>15:32:08</t>
-  </si>
-  <si>
-    <t>15:32:11</t>
-  </si>
-  <si>
-    <t>15:32:12</t>
-  </si>
-  <si>
-    <t>15:32:14</t>
-  </si>
-  <si>
-    <t>15:32:15</t>
-  </si>
-  <si>
-    <t>15:32:17</t>
-  </si>
-  <si>
-    <t>15:32:18</t>
-  </si>
-  <si>
-    <t>15:32:20</t>
-  </si>
-  <si>
-    <t>15:32:21</t>
-  </si>
-  <si>
-    <t>15:32:23</t>
-  </si>
-  <si>
-    <t>15:32:24</t>
-  </si>
-  <si>
-    <t>15:32:26</t>
-  </si>
-  <si>
-    <t>15:32:27</t>
-  </si>
-  <si>
-    <t>15:32:29</t>
-  </si>
-  <si>
-    <t>15:32:30</t>
-  </si>
-  <si>
-    <t>15:32:38</t>
-  </si>
-  <si>
-    <t>15:32:46</t>
-  </si>
-  <si>
-    <t>15:32:54</t>
-  </si>
-  <si>
-    <t>15:33:02</t>
-  </si>
-  <si>
-    <t>15:33:11</t>
-  </si>
-  <si>
-    <t>15:33:18</t>
-  </si>
-  <si>
-    <t>15:33:26</t>
-  </si>
-  <si>
-    <t>15:33:33</t>
-  </si>
-  <si>
-    <t>15:33:41</t>
-  </si>
-  <si>
-    <t>15:33:49</t>
-  </si>
-  <si>
-    <t>15:33:56</t>
-  </si>
-  <si>
-    <t>15:34:04</t>
-  </si>
-  <si>
-    <t>15:34:13</t>
-  </si>
-  <si>
-    <t>15:34:22</t>
-  </si>
-  <si>
-    <t>15:34:30</t>
-  </si>
-  <si>
-    <t>15:34:38</t>
-  </si>
-  <si>
-    <t>15:34:46</t>
-  </si>
-  <si>
-    <t>15:34:54</t>
-  </si>
-  <si>
-    <t>15:35:02</t>
-  </si>
-  <si>
-    <t>15:35:09</t>
-  </si>
-  <si>
-    <t>15:35:17</t>
-  </si>
-  <si>
-    <t>15:35:25</t>
-  </si>
-  <si>
-    <t>15:35:33</t>
-  </si>
-  <si>
-    <t>15:35:40</t>
-  </si>
-  <si>
-    <t>15:35:47</t>
-  </si>
-  <si>
-    <t>15:35:56</t>
-  </si>
-  <si>
-    <t>15:36:04</t>
-  </si>
-  <si>
-    <t>15:36:16</t>
-  </si>
-  <si>
-    <t>15:36:25</t>
-  </si>
-  <si>
-    <t>15:36:32</t>
-  </si>
-  <si>
-    <t>15:36:40</t>
-  </si>
-  <si>
-    <t>15:36:47</t>
-  </si>
-  <si>
-    <t>15:36:54</t>
-  </si>
-  <si>
-    <t>15:37:01</t>
-  </si>
-  <si>
-    <t>15:37:09</t>
-  </si>
-  <si>
-    <t>15:37:11</t>
-  </si>
-  <si>
-    <t>15:37:14</t>
-  </si>
-  <si>
-    <t>15:37:15</t>
-  </si>
-  <si>
-    <t>15:37:18</t>
-  </si>
-  <si>
-    <t>15:37:20</t>
-  </si>
-  <si>
-    <t>15:37:29</t>
-  </si>
-  <si>
-    <t>15:37:37</t>
-  </si>
-  <si>
-    <t>15:37:44</t>
-  </si>
-  <si>
-    <t>15:37:45</t>
-  </si>
-  <si>
-    <t>15:37:54</t>
-  </si>
-  <si>
-    <t>15:38:01</t>
-  </si>
-  <si>
-    <t>15:38:09</t>
-  </si>
-  <si>
-    <t>15:38:16</t>
-  </si>
-  <si>
-    <t>15:38:18</t>
-  </si>
-  <si>
-    <t>15:38:20</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>15:39:07</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>15:41:35</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>15:48:54</t>
-  </si>
-  <si>
-    <t>15:49:59</t>
-  </si>
-  <si>
-    <t>16:04:30</t>
+    <t>2021-06-10</t>
+  </si>
+  <si>
+    <t>11:40:16</t>
+  </si>
+  <si>
+    <t>11:42:24</t>
+  </si>
+  <si>
+    <t>11:44:45</t>
+  </si>
+  <si>
+    <t>11:46:25</t>
   </si>
 </sst>
 </file>
@@ -795,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScale="185" zoomScaleNormal="176" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="185" zoomScaleNormal="176" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -848,63 +545,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
